--- a/nemovitosti.xlsx
+++ b/nemovitosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{42F26C33-24B7-3F48-AC67-56AB3CA1E2D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4F28BDD9-EA5A-6B4D-B5B4-6EBA6C1EAE7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Ulice</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Odkaz</t>
   </si>
   <si>
-    <t>https://nahlizenidokn.cuzk.cz/ZobrazObjekt.aspx?encrypted=xD4RtA5JTokYhUF5V2hN9Ni9mF7q3VNP-C_x28sJW_w3ZeJQsBxBZMHLg7feKshzq542iGY-9xNsxEikbavlU3hzEEQ5mBA0B5yl0aCb2ED-1Lmwvjc8of1IA5EajefX6DxZTam297JJ2QYr63PB1kN2-6-mkLnzgRxbj5mV9H90vt8L0CtS7nWmWpCsptpiM6gBM5HfFDKkjerT8jw_KrjIfwWk-K9HXrtBfYyzWqebM9BZPJ7mPjI7SYGkDDUAKIjTw8pK_sgOMIP_IBmAVyisLEVnvxJbgxzIWkY7mXH61H7zQa4Sr3LF6RS4Qis2aQrHeFArwta0ioa_ZPyjdx3yDjxrhAK_3uAH9aB8u-Bhw3g4qQ1A7u3sjhhjf2aioLsQmL5r-fnnDfPc6-6Sb9cdkAKkpVBvSjjcfwjT9xmiioPdTGzHPVpDJ7rZhqKrhCbs9RXFfW3pN4059LkfK486kmTFebaCdimcfNJjT3V0OFHc6zo9shSxrgZMQS1hoi72g4tRMwNhcL7L7D1VBRjP48A7pQnb</t>
-  </si>
-  <si>
     <t>1089/10</t>
   </si>
   <si>
@@ -153,10 +150,98 @@
     <t>Nejsou evidovány žádné jiné zápisy.</t>
   </si>
   <si>
-    <t>https://vdp.cuzk.cz/vdp/ruian/parcely/3260925209</t>
-  </si>
-  <si>
-    <t>https://vdp.cuzk.cz/vdp/ruian/parcely/3260925209#</t>
+    <t xml:space="preserve">1089/5_x000D_
+</t>
+  </si>
+  <si>
+    <t>1078/1</t>
+  </si>
+  <si>
+    <t>zahrada</t>
+  </si>
+  <si>
+    <t>SJM Čepek Vladimír a Čepková Ludmila</t>
+  </si>
+  <si>
+    <t>Zahradní 347/6, Ruzyně, 16100 Praha 6</t>
+  </si>
+  <si>
+    <t>50.1055701N</t>
+  </si>
+  <si>
+    <t>14.7148186E</t>
+  </si>
+  <si>
+    <t>Poznamky</t>
+  </si>
+  <si>
+    <t>Věcné břemeno (podle listiny)</t>
+  </si>
+  <si>
+    <t>1065/3</t>
+  </si>
+  <si>
+    <t>Řízení, v rámci kterých byl k nemovitosti zapsán cenový údaj</t>
+  </si>
+  <si>
+    <t>zapis prava 17.8.2021 Knotek Jan</t>
+  </si>
+  <si>
+    <t>Hemer Aleš Mgr.</t>
+  </si>
+  <si>
+    <t>Vybíralova 938/31, Černý Most, 19800 Praha 9</t>
+  </si>
+  <si>
+    <t>Nejsou evidována žádná omezení.</t>
+  </si>
+  <si>
+    <t>23001-3352, 23101-2410</t>
+  </si>
+  <si>
+    <t>50.1093326N</t>
+  </si>
+  <si>
+    <t>14.7000583E</t>
+  </si>
+  <si>
+    <t>Šlambera Karel</t>
+  </si>
+  <si>
+    <t>Nad přehradou 408, Horní Měcholupy, 10900 Praha 10</t>
+  </si>
+  <si>
+    <t>Novák Antonín</t>
+  </si>
+  <si>
+    <t>Kamenný vrch 5270, 43004 Chomutov</t>
+  </si>
+  <si>
+    <t>Kapoun Miroslav Ing</t>
+  </si>
+  <si>
+    <t>Štěříkova louka 1163, 35735 Chodov</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>Vlastnik 4</t>
+  </si>
+  <si>
+    <t>Hubená Alena</t>
+  </si>
+  <si>
+    <t>Hutnická 5295, 43004 Chomutov</t>
+  </si>
+  <si>
+    <t>Višňová</t>
+  </si>
+  <si>
+    <t>Změna číslování parcel, Změna výměr obnovou operátu</t>
+  </si>
+  <si>
+    <t>23001-5, 23101-5586</t>
   </si>
 </sst>
 </file>
@@ -236,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -257,8 +342,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -574,62 +665,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.2578125" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="7.26171875" customWidth="1"/>
     <col min="6" max="6" width="14.2578125" customWidth="1"/>
-    <col min="7" max="7" width="28.78515625" customWidth="1"/>
+    <col min="7" max="7" width="29.32421875" customWidth="1"/>
     <col min="8" max="8" width="25.01953125" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>
-    <col min="10" max="10" width="30.8046875" customWidth="1"/>
-    <col min="11" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="23.67578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.609375" style="11"/>
-    <col min="16" max="16" width="16.94921875" customWidth="1"/>
-    <col min="17" max="17" width="34.4375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.609375" style="11"/>
-    <col min="19" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="34.4375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="8.609375" style="11"/>
-    <col min="22" max="22" width="34.16796875" style="11" customWidth="1"/>
-    <col min="23" max="24" width="8.609375" style="11"/>
+    <col min="10" max="11" width="30.8046875" customWidth="1"/>
+    <col min="12" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="12.9140625" customWidth="1"/>
+    <col min="15" max="15" width="33.359375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.609375" style="11"/>
+    <col min="17" max="17" width="16.94921875" customWidth="1"/>
+    <col min="18" max="18" width="34.4375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8.609375" style="11"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="34.4375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="8.609375" style="11"/>
+    <col min="23" max="23" width="12.5078125" customWidth="1"/>
+    <col min="24" max="24" width="34.4375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="8.609375" style="11"/>
+    <col min="26" max="26" width="34.16796875" style="11" customWidth="1"/>
+    <col min="27" max="28" width="8.609375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K1" s="2"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="8"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -655,51 +755,65 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="AA2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="9"/>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -725,51 +839,58 @@
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>697</v>
@@ -790,38 +911,247 @@
         <v>23101</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="D6">
+        <v>306</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1609</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>23101</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>656</v>
+      </c>
+      <c r="E7">
+        <v>746</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>23101</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>1614</v>
+      </c>
+      <c r="D9">
+        <v>1806</v>
+      </c>
+      <c r="E9">
+        <v>5762</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>1613</v>
+      </c>
+      <c r="D10">
+        <v>683</v>
+      </c>
+      <c r="E10">
+        <v>5591</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{A0EA94A4-7803-6841-A378-B7C4B81D40C0}"/>
-    <hyperlink ref="V5" r:id="rId2" xr:uid="{512081B4-ED8B-6848-9227-0FEDB1527034}"/>
+    <hyperlink ref="Z3" r:id="rId1" xr:uid="{EFE6925E-D7C7-F041-8DBF-171FB55010AD}"/>
+    <hyperlink ref="Z6" r:id="rId2" xr:uid="{21D9487E-213C-EA4E-BCEB-2F1DA704F351}"/>
+    <hyperlink ref="Z7" r:id="rId3" xr:uid="{2E901F7A-6E21-F748-B8FA-4AE41B615820}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/nemovitosti.xlsx
+++ b/nemovitosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4F28BDD9-EA5A-6B4D-B5B4-6EBA6C1EAE7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5472B9CE-4B7B-FB44-AA7F-7E132089BECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>Ulice</t>
   </si>
@@ -242,6 +242,97 @@
   </si>
   <si>
     <t>23001-5, 23101-5586</t>
+  </si>
+  <si>
+    <t>Kopecký Václav</t>
+  </si>
+  <si>
+    <t>Hlavní 399, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1613_x000D_
+</t>
+  </si>
+  <si>
+    <t>Rozhodnutí o povolení vkladu 8.1.2016</t>
+  </si>
+  <si>
+    <t>23001-5680, 23001 -198</t>
+  </si>
+  <si>
+    <t>Obec Jirny</t>
+  </si>
+  <si>
+    <t>Brandýská 9, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>Jelínková Linda</t>
+  </si>
+  <si>
+    <t>Vilová 327, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>23001-4438, 20100-469</t>
+  </si>
+  <si>
+    <t>Vyskočil Petr</t>
+  </si>
+  <si>
+    <t>Na Samotě 24, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>Provedení vkladu</t>
+  </si>
+  <si>
+    <t>Provedení vkladu 5.1.2016</t>
+  </si>
+  <si>
+    <t>23001-3998, 20100-910</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>23001-3148, 20100-1446</t>
+  </si>
+  <si>
+    <t>Navrátilová Věra</t>
+  </si>
+  <si>
+    <t>V Zátiší 69, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>23001-1502, 20100-3106</t>
+  </si>
+  <si>
+    <t>Nováková Věra</t>
+  </si>
+  <si>
+    <t>Lodžská 467/18, Bohnice, 18100 Praha 8</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>20100-4146</t>
+  </si>
+  <si>
+    <t>Změna výměr obnovou operátu, Změna číslování parcel</t>
+  </si>
+  <si>
+    <t>Goldschmiedová Miloslava</t>
+  </si>
+  <si>
+    <t>Boloňská 602/9, Horní Měcholupy, 10900 Praha 10</t>
+  </si>
+  <si>
+    <t>1605</t>
   </si>
 </sst>
 </file>
@@ -665,16 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M3" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="Q13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.2578125" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
     <col min="5" max="5" width="7.26171875" customWidth="1"/>
     <col min="6" max="6" width="14.2578125" customWidth="1"/>
     <col min="7" max="7" width="29.32421875" customWidth="1"/>
@@ -682,7 +773,7 @@
     <col min="9" max="9" width="11.296875" customWidth="1"/>
     <col min="10" max="11" width="30.8046875" customWidth="1"/>
     <col min="12" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="12.9140625" customWidth="1"/>
+    <col min="14" max="14" width="34.4375" customWidth="1"/>
     <col min="15" max="15" width="33.359375" style="6" customWidth="1"/>
     <col min="16" max="16" width="8.609375" style="11"/>
     <col min="17" max="17" width="16.94921875" customWidth="1"/>
@@ -1107,7 +1198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1143,6 +1234,291 @@
       </c>
       <c r="M10" t="s">
         <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>1612</v>
+      </c>
+      <c r="D11">
+        <v>10001</v>
+      </c>
+      <c r="E11">
+        <v>5878</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>1611</v>
+      </c>
+      <c r="D12">
+        <v>1793</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4907</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1610</v>
+      </c>
+      <c r="D13">
+        <v>1017</v>
+      </c>
+      <c r="E13">
+        <v>4908</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>1609</v>
+      </c>
+      <c r="D14">
+        <v>571</v>
+      </c>
+      <c r="E14">
+        <v>4594</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>1607</v>
+      </c>
+      <c r="D15">
+        <v>2046</v>
+      </c>
+      <c r="E15">
+        <v>4608</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>1605</v>
+      </c>
+      <c r="D16">
+        <v>1078</v>
+      </c>
+      <c r="E16">
+        <v>4146</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1150,8 +1526,14 @@
     <hyperlink ref="Z3" r:id="rId1" xr:uid="{EFE6925E-D7C7-F041-8DBF-171FB55010AD}"/>
     <hyperlink ref="Z6" r:id="rId2" xr:uid="{21D9487E-213C-EA4E-BCEB-2F1DA704F351}"/>
     <hyperlink ref="Z7" r:id="rId3" xr:uid="{2E901F7A-6E21-F748-B8FA-4AE41B615820}"/>
+    <hyperlink ref="Z10" r:id="rId4" xr:uid="{C97DB601-DF0D-994F-975C-83AADF899F63}"/>
+    <hyperlink ref="Z11" r:id="rId5" xr:uid="{AC2FFADF-D2E8-734C-9B96-A901F0631D60}"/>
+    <hyperlink ref="Z13" r:id="rId6" xr:uid="{3C6DE160-19A7-BF40-ADBA-5A04581DD56B}"/>
+    <hyperlink ref="Z14" r:id="rId7" xr:uid="{6212B523-B070-3B40-9311-2EF4DA94C4F2}"/>
+    <hyperlink ref="Z15" r:id="rId8" xr:uid="{CEB50C14-B7AE-6642-8B6D-1A3FC808068D}"/>
+    <hyperlink ref="Z16" r:id="rId9" xr:uid="{3F0E3385-7139-B84A-8AA2-06AC0B62E44E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/nemovitosti.xlsx
+++ b/nemovitosti.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5472B9CE-4B7B-FB44-AA7F-7E132089BECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBCF2E8-6349-4CCF-B581-A3FC5F6119A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
   <sheets>
     <sheet name="Jirny" sheetId="1" r:id="rId1"/>
+    <sheet name="Úvaly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="171">
   <si>
     <t>Ulice</t>
   </si>
@@ -333,13 +333,229 @@
   </si>
   <si>
     <t>1605</t>
+  </si>
+  <si>
+    <t>Matoušková Lenka</t>
+  </si>
+  <si>
+    <t>Valachová Jana</t>
+  </si>
+  <si>
+    <t>Hlavní 183, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>20100-4096</t>
+  </si>
+  <si>
+    <t>Lauerová Pavlína</t>
+  </si>
+  <si>
+    <t>Na Americe II 264, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>Šlechtitelská 387, Klánovice, 19014 Praha 9</t>
+  </si>
+  <si>
+    <t>20100-3049</t>
+  </si>
+  <si>
+    <t>20100-3042</t>
+  </si>
+  <si>
+    <t>Bartoš Ondřej</t>
+  </si>
+  <si>
+    <t>Jana Přibíka 951/11, Vysočany, 19000 Praha 9</t>
+  </si>
+  <si>
+    <t>Provedení vkladu 29.03.2021</t>
+  </si>
+  <si>
+    <t>V zahradách</t>
+  </si>
+  <si>
+    <t>Brunhofer Luboš</t>
+  </si>
+  <si>
+    <t>Hlavní 74, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>50.1019722N</t>
+  </si>
+  <si>
+    <t>14.7133261E</t>
+  </si>
+  <si>
+    <t>23111-4078, 25111-4494</t>
+  </si>
+  <si>
+    <t>25111-13105, 23111-80</t>
+  </si>
+  <si>
+    <t>1089/1</t>
+  </si>
+  <si>
+    <t>1089/54</t>
+  </si>
+  <si>
+    <t>23111-1706, 25111-409</t>
+  </si>
+  <si>
+    <t>Dostál Luděk Ing.</t>
+  </si>
+  <si>
+    <t>Mezi humny 599/3, Dolní Měcholupy, 11101 Praha 10</t>
+  </si>
+  <si>
+    <t>1089/53</t>
+  </si>
+  <si>
+    <t>23111-202, 25111-2194</t>
+  </si>
+  <si>
+    <t>1086/1</t>
+  </si>
+  <si>
+    <t>2311-329, 2511-9120</t>
+  </si>
+  <si>
+    <t>Karlová Iva</t>
+  </si>
+  <si>
+    <t>V Zátiší 86/8, 25092 Šestajovice</t>
+  </si>
+  <si>
+    <t>Pivoňka Václav</t>
+  </si>
+  <si>
+    <t>Hlavní 200, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>Rytířová Alena</t>
+  </si>
+  <si>
+    <t>Hlavní 10, Nové Jirny, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>Kalashova Elmira</t>
+  </si>
+  <si>
+    <t>Miroslava Hajna 740/4, Letňany, 19900 Praha 9</t>
+  </si>
+  <si>
+    <t>997/14</t>
+  </si>
+  <si>
+    <t>997/15</t>
+  </si>
+  <si>
+    <t>Založení řízení - Vklad prava 17.08.2021 - Přerušené řízení - 1.9.2021 - Mgr. Hemer Aleš	Nabyvatel</t>
+  </si>
+  <si>
+    <t>Založení řízení - Vklad prava 17.08.2021 - Přerušené řízení - 1.9.2021 Mgr. Hemer Aleš	Nabyvatel</t>
+  </si>
+  <si>
+    <t>1068/2</t>
+  </si>
+  <si>
+    <t>Antoš Pavel</t>
+  </si>
+  <si>
+    <t>Vrbčanská 2075/8, Strašnice, 10000 Praha 10</t>
+  </si>
+  <si>
+    <t>Šiftařová Lenka</t>
+  </si>
+  <si>
+    <t>168/2</t>
+  </si>
+  <si>
+    <t>Cyrilovská</t>
+  </si>
+  <si>
+    <t>1554/1</t>
+  </si>
+  <si>
+    <t>23101-3667, 21300-15410</t>
+  </si>
+  <si>
+    <t>50.1030906N</t>
+  </si>
+  <si>
+    <t>14.7021572E</t>
+  </si>
+  <si>
+    <t>Benešová Pavla</t>
+  </si>
+  <si>
+    <t>Olešnice 208, 54941 Červený Kostelec</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>Hůlová Vladana</t>
+  </si>
+  <si>
+    <t>Husova 206/19, 25091 Zeleneč</t>
+  </si>
+  <si>
+    <t>Kašparová Pavla</t>
+  </si>
+  <si>
+    <t>K Lesu 66, 25090 Jirny</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>Na jablonce</t>
+  </si>
+  <si>
+    <t>21300-9133, 23101-2898</t>
+  </si>
+  <si>
+    <t>50.1049208N</t>
+  </si>
+  <si>
+    <t>14.7016881E</t>
+  </si>
+  <si>
+    <t>Čížek Vladimír Ing.</t>
+  </si>
+  <si>
+    <t>Volutová 2524/12, Stodůlky, 15800 Praha 5</t>
+  </si>
+  <si>
+    <t>Padevětová Ludmila Mgr.</t>
+  </si>
+  <si>
+    <t>Legerova 1824/47, Nové Město, 12000 Praha 2</t>
+  </si>
+  <si>
+    <t>Úvaly [538957]</t>
+  </si>
+  <si>
+    <t>Zálesí</t>
+  </si>
+  <si>
+    <t>3399/103</t>
+  </si>
+  <si>
+    <t>VILAPARK ÚVALY s.r.o.</t>
+  </si>
+  <si>
+    <t>Vinohradská 938/37, Vinohrady, 12000 Praha 2</t>
+  </si>
+  <si>
+    <t>Vklad práva do katastru nemovitostí byl zapsán. Údaje katastru se změnily v souladu s rozhodnutím o povolení vkladu. Lze získat výpis z katastru nemovitostí po provedené změně. Obeslání účastníků řízení následuje v dalších dnech po provedení vkladu.	03.08.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +587,13 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -408,11 +631,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -441,10 +665,16 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,40 +986,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q13" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.2578125" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="14.2578125" customWidth="1"/>
-    <col min="7" max="7" width="29.32421875" customWidth="1"/>
-    <col min="8" max="8" width="25.01953125" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" customWidth="1"/>
-    <col min="10" max="11" width="30.8046875" customWidth="1"/>
-    <col min="12" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="34.4375" customWidth="1"/>
-    <col min="15" max="15" width="33.359375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.609375" style="11"/>
-    <col min="17" max="17" width="16.94921875" customWidth="1"/>
-    <col min="18" max="18" width="34.4375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8.609375" style="11"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="34.4375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="8.609375" style="11"/>
-    <col min="23" max="23" width="12.5078125" customWidth="1"/>
-    <col min="24" max="24" width="34.4375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="8.609375" style="11"/>
-    <col min="26" max="26" width="34.16796875" style="11" customWidth="1"/>
-    <col min="27" max="28" width="8.609375" style="11"/>
+    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="11"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="11"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" style="11"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="11"/>
+    <col min="26" max="26" width="34.140625" style="11" customWidth="1"/>
+    <col min="27" max="28" width="8.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L1" s="2"/>
       <c r="N1" s="4"/>
       <c r="O1" s="5" t="s">
@@ -815,7 +1045,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +1129,7 @@
       </c>
       <c r="AB2" s="9"/>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -973,7 +1203,7 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1022,11 +1252,11 @@
       </c>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1124,23 +1354,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8">
+        <v>2667</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>23101</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>1614</v>
+      <c r="C9" t="s">
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>1806</v>
+        <v>2024</v>
       </c>
       <c r="E9">
-        <v>5762</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1149,376 +1427,1039 @@
       <c r="H9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>37</v>
+      <c r="I9">
+        <v>23101</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
+        <v>134</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10">
-        <v>1613</v>
+      <c r="C10" t="s">
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>683</v>
+        <v>1121</v>
       </c>
       <c r="E10">
-        <v>5591</v>
+        <v>1448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="I10" s="7">
+        <v>23101</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>1612</v>
-      </c>
-      <c r="D11">
-        <v>10001</v>
-      </c>
-      <c r="E11">
-        <v>5878</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>1611</v>
-      </c>
-      <c r="D12">
-        <v>1793</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4907</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>66</v>
+        <v>141</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13">
-        <v>1610</v>
+        <v>1093</v>
       </c>
       <c r="D13">
-        <v>1017</v>
+        <v>221</v>
       </c>
       <c r="E13">
-        <v>4908</v>
+        <v>8572</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
+      <c r="G13" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="15"/>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
+        <v>113</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
-        <v>1609</v>
+      <c r="C14" t="s">
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>571</v>
+        <v>683</v>
       </c>
       <c r="E14">
-        <v>4594</v>
+        <v>13185</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15"/>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>1607</v>
+      <c r="C15" t="s">
+        <v>119</v>
       </c>
       <c r="D15">
-        <v>2046</v>
+        <v>1147</v>
       </c>
       <c r="E15">
-        <v>4608</v>
+        <v>2115</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s">
-        <v>82</v>
-      </c>
+      <c r="I15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="15"/>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
+        <v>122</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
-        <v>1605</v>
+      <c r="C16" t="s">
+        <v>123</v>
       </c>
       <c r="D16">
-        <v>1078</v>
+        <v>1147</v>
       </c>
       <c r="E16">
-        <v>4146</v>
+        <v>2396</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17">
+        <v>520</v>
+      </c>
+      <c r="E17">
+        <v>9449</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>129</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>131</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z17" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>1614</v>
+      </c>
+      <c r="D19">
+        <v>1806</v>
+      </c>
+      <c r="E19">
+        <v>5762</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1613</v>
+      </c>
+      <c r="D20">
+        <v>683</v>
+      </c>
+      <c r="E20">
+        <v>5591</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>1612</v>
+      </c>
+      <c r="D21">
+        <v>10001</v>
+      </c>
+      <c r="E21">
+        <v>5878</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>1611</v>
+      </c>
+      <c r="D22">
+        <v>1793</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4907</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>1610</v>
+      </c>
+      <c r="D23">
+        <v>1017</v>
+      </c>
+      <c r="E23">
+        <v>4908</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>1609</v>
+      </c>
+      <c r="D24">
+        <v>571</v>
+      </c>
+      <c r="E24">
+        <v>4594</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>1607</v>
+      </c>
+      <c r="D25">
+        <v>2046</v>
+      </c>
+      <c r="E25">
+        <v>4608</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>1605</v>
+      </c>
+      <c r="D26">
+        <v>1078</v>
+      </c>
+      <c r="E26">
+        <v>4146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L26" t="s">
         <v>54</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M26" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Z16" s="14" t="s">
+      <c r="Z26" s="14" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>1604</v>
+      </c>
+      <c r="D27">
+        <v>1906</v>
+      </c>
+      <c r="E27">
+        <v>4096</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>1603</v>
+      </c>
+      <c r="D28">
+        <v>1984</v>
+      </c>
+      <c r="E28">
+        <v>3049</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>1602</v>
+      </c>
+      <c r="D29">
+        <v>1983</v>
+      </c>
+      <c r="E29">
+        <v>3042</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31">
+        <v>377</v>
+      </c>
+      <c r="E31">
+        <v>19077</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>152</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T31" t="s">
+        <v>154</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>1561</v>
+      </c>
+      <c r="D32">
+        <v>789</v>
+      </c>
+      <c r="E32">
+        <v>12031</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>163</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>1561</v>
       </c>
     </row>
   </sheetData>
@@ -1526,14 +2467,468 @@
     <hyperlink ref="Z3" r:id="rId1" xr:uid="{EFE6925E-D7C7-F041-8DBF-171FB55010AD}"/>
     <hyperlink ref="Z6" r:id="rId2" xr:uid="{21D9487E-213C-EA4E-BCEB-2F1DA704F351}"/>
     <hyperlink ref="Z7" r:id="rId3" xr:uid="{2E901F7A-6E21-F748-B8FA-4AE41B615820}"/>
-    <hyperlink ref="Z10" r:id="rId4" xr:uid="{C97DB601-DF0D-994F-975C-83AADF899F63}"/>
-    <hyperlink ref="Z11" r:id="rId5" xr:uid="{AC2FFADF-D2E8-734C-9B96-A901F0631D60}"/>
-    <hyperlink ref="Z13" r:id="rId6" xr:uid="{3C6DE160-19A7-BF40-ADBA-5A04581DD56B}"/>
-    <hyperlink ref="Z14" r:id="rId7" xr:uid="{6212B523-B070-3B40-9311-2EF4DA94C4F2}"/>
-    <hyperlink ref="Z15" r:id="rId8" xr:uid="{CEB50C14-B7AE-6642-8B6D-1A3FC808068D}"/>
-    <hyperlink ref="Z16" r:id="rId9" xr:uid="{3F0E3385-7139-B84A-8AA2-06AC0B62E44E}"/>
+    <hyperlink ref="Z20" r:id="rId4" xr:uid="{C97DB601-DF0D-994F-975C-83AADF899F63}"/>
+    <hyperlink ref="Z21" r:id="rId5" xr:uid="{AC2FFADF-D2E8-734C-9B96-A901F0631D60}"/>
+    <hyperlink ref="Z23" r:id="rId6" xr:uid="{3C6DE160-19A7-BF40-ADBA-5A04581DD56B}"/>
+    <hyperlink ref="Z24" r:id="rId7" xr:uid="{6212B523-B070-3B40-9311-2EF4DA94C4F2}"/>
+    <hyperlink ref="Z25" r:id="rId8" xr:uid="{CEB50C14-B7AE-6642-8B6D-1A3FC808068D}"/>
+    <hyperlink ref="Z26" r:id="rId9" xr:uid="{3F0E3385-7139-B84A-8AA2-06AC0B62E44E}"/>
+    <hyperlink ref="Z28" r:id="rId10" display="1603" xr:uid="{B802D366-99A7-44F4-9309-946970189C2E}"/>
+    <hyperlink ref="Z29" r:id="rId11" display="1602" xr:uid="{2DD8589A-8526-4A1F-8202-2ABAFEBC3C01}"/>
+    <hyperlink ref="Z13" r:id="rId12" display="1093" xr:uid="{2E24D71A-1FCE-418D-89A3-E8E46C209B9A}"/>
+    <hyperlink ref="Z14" r:id="rId13" xr:uid="{FD771C26-0775-4E06-8771-6F97B0DCE67D}"/>
+    <hyperlink ref="Z15" r:id="rId14" xr:uid="{E2AAC2D1-9667-4EC9-BB33-45CD57992E81}"/>
+    <hyperlink ref="Z16" r:id="rId15" xr:uid="{C1638F34-D21E-43C3-A4AB-5C0C90499830}"/>
+    <hyperlink ref="Z17" r:id="rId16" xr:uid="{EF6DF9E9-D1F2-4895-8C17-F14C48C45F31}"/>
+    <hyperlink ref="Z8" r:id="rId17" xr:uid="{9F4BDF8E-633A-478C-8E50-42D4C0389164}"/>
+    <hyperlink ref="Z9" r:id="rId18" xr:uid="{E5FA337C-889F-46E3-96CE-F958247FF079}"/>
+    <hyperlink ref="Z10" r:id="rId19" xr:uid="{51017563-4C07-4570-BC54-CA3457FD8F98}"/>
+    <hyperlink ref="Z31" r:id="rId20" xr:uid="{4E80F559-67BD-4EFB-8063-3793E741062E}"/>
+    <hyperlink ref="Z32" r:id="rId21" display="1561" xr:uid="{7B174E87-2791-4CCF-88FF-A17E008B8EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D0ADB-757D-46FF-BE65-D59C1A8693CA}">
+  <dimension ref="A1:AB32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="11"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="11"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="11"/>
+    <col min="26" max="26" width="34.140625" style="11" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1570</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2527</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="Z6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="Z17" s="17"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="Z20" s="13"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="Z21" s="14"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="Z23" s="14"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="N28" s="16"/>
+      <c r="Z28" s="17"/>
+    </row>
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="N29" s="16"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="N31" s="16"/>
+      <c r="Z31" s="17"/>
+    </row>
+    <row r="32" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="16"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="N32" s="16"/>
+      <c r="R32" s="18"/>
+      <c r="Z32" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>